--- a/Runs/Final_PDI1_RLU2/B16/IV_Validation/Validation_set.xlsx
+++ b/Runs/Final_PDI1_RLU2/B16/IV_Validation/Validation_set.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,145 +507,145 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5375</v>
+        <v>11961</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>14PA</t>
+          <t>18PG</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>11.8502</v>
+        <v>9.3028</v>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G2" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J2" t="n">
-        <v>350</v>
+        <v>70</v>
       </c>
       <c r="K2" t="n">
         <v>75</v>
       </c>
       <c r="L2" t="n">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.007087551285831728</v>
+        <v>-0.005874720885638602</v>
       </c>
       <c r="N2" t="n">
-        <v>1.934992979606351</v>
+        <v>1.946117060036923</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5150</v>
+        <v>305</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>14PA</t>
+          <t>18PG</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>11.8502</v>
+        <v>9.3028</v>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G3" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J3" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="K3" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="L3" t="n">
-        <v>135</v>
+        <v>4</v>
       </c>
       <c r="M3" t="n">
-        <v>0.008499891326939787</v>
+        <v>-0.01045724615189837</v>
       </c>
       <c r="N3" t="n">
-        <v>2.077961003250692</v>
+        <v>1.904086138294788</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1823</v>
+        <v>9159</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DOPE</t>
+          <t>18PG</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>9.784000000000001</v>
+        <v>9.3028</v>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G4" t="n">
         <v>36</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>9</v>
       </c>
       <c r="J4" t="n">
-        <v>350</v>
+        <v>50</v>
       </c>
       <c r="K4" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="L4" t="n">
-        <v>35</v>
+        <v>120</v>
       </c>
       <c r="M4" t="n">
-        <v>0.005367562777122215</v>
+        <v>-0.0005510610013151772</v>
       </c>
       <c r="N4" t="n">
-        <v>2.049231285791765</v>
+        <v>1.994945668495937</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2103</v>
+        <v>21292</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -671,44 +671,44 @@
         <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J5" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="K5" t="n">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="L5" t="n">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.00907910626068841</v>
+        <v>-0.03151380054466597</v>
       </c>
       <c r="N5" t="n">
-        <v>1.916726437376966</v>
+        <v>1.710955421404324</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3126</v>
+        <v>21125</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DOTAP</t>
+          <t>DOPE</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>12.515</v>
+        <v>9.784000000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F6" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G6" t="n">
         <v>36</v>
@@ -717,27 +717,27 @@
         <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J6" t="n">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="K6" t="n">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="L6" t="n">
-        <v>25</v>
+        <v>120</v>
       </c>
       <c r="M6" t="n">
-        <v>0.6445411001684075</v>
+        <v>-0.00662968209486068</v>
       </c>
       <c r="N6" t="n">
-        <v>7.911730970744634</v>
+        <v>1.939192555825938</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3283</v>
+        <v>33632</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -763,27 +763,27 @@
         <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J7" t="n">
-        <v>350</v>
+        <v>60</v>
       </c>
       <c r="K7" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="L7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M7" t="n">
-        <v>0.779564163348225</v>
+        <v>0.8287592435514013</v>
       </c>
       <c r="N7" t="n">
-        <v>9.15016250622992</v>
+        <v>9.601379781853453</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2894</v>
+        <v>28991</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -809,27 +809,27 @@
         <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J8" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="K8" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="L8" t="n">
         <v>4</v>
       </c>
       <c r="M8" t="n">
-        <v>0.7423982913727166</v>
+        <v>0.7933505544661379</v>
       </c>
       <c r="N8" t="n">
-        <v>8.809277128470558</v>
+        <v>9.276611285563417</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2721</v>
+        <v>33974</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -858,24 +858,24 @@
         <v>7</v>
       </c>
       <c r="J9" t="n">
-        <v>70</v>
+        <v>250</v>
       </c>
       <c r="K9" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="L9" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M9" t="n">
-        <v>0.6445411001684075</v>
+        <v>0.7423982913727166</v>
       </c>
       <c r="N9" t="n">
-        <v>7.911730970744634</v>
+        <v>8.809277128470558</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2697</v>
+        <v>33663</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -904,65 +904,157 @@
         <v>7</v>
       </c>
       <c r="J10" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="K10" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="L10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M10" t="n">
-        <v>0.7764442152871439</v>
+        <v>0.6965966909481704</v>
       </c>
       <c r="N10" t="n">
-        <v>9.121546342613685</v>
+        <v>8.389184849376621</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4584</v>
+        <v>28874</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>DSPC</t>
+          <t>DOTAP</t>
         </is>
       </c>
       <c r="C11" t="n">
         <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>6.12</v>
+        <v>12.515</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
+        <v>4</v>
+      </c>
+      <c r="G11" t="n">
+        <v>36</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+      <c r="I11" t="n">
+        <v>5</v>
+      </c>
+      <c r="J11" t="n">
+        <v>80</v>
+      </c>
+      <c r="K11" t="n">
+        <v>30</v>
+      </c>
+      <c r="L11" t="n">
+        <v>3</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.7517572385919185</v>
+      </c>
+      <c r="N11" t="n">
+        <v>8.895117392365076</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>38313</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>DOTAP</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>12.515</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>4</v>
+      </c>
+      <c r="G12" t="n">
+        <v>36</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+      <c r="I12" t="n">
+        <v>10</v>
+      </c>
+      <c r="J12" t="n">
+        <v>200</v>
+      </c>
+      <c r="K12" t="n">
+        <v>25</v>
+      </c>
+      <c r="L12" t="n">
+        <v>2</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.6965966909481704</v>
+      </c>
+      <c r="N12" t="n">
+        <v>8.389184849376621</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>43165</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>DSPC</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
         <v>8</v>
       </c>
-      <c r="G11" t="n">
-        <v>36</v>
-      </c>
-      <c r="H11" t="n">
+      <c r="G13" t="n">
+        <v>36</v>
+      </c>
+      <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>11</v>
-      </c>
-      <c r="J11" t="n">
-        <v>40</v>
-      </c>
-      <c r="K11" t="n">
-        <v>25</v>
-      </c>
-      <c r="L11" t="n">
-        <v>165</v>
-      </c>
-      <c r="M11" t="n">
-        <v>-0.01636248846313697</v>
-      </c>
-      <c r="N11" t="n">
-        <v>1.849923255816108</v>
+      <c r="I13" t="n">
+        <v>5</v>
+      </c>
+      <c r="J13" t="n">
+        <v>50</v>
+      </c>
+      <c r="K13" t="n">
+        <v>55</v>
+      </c>
+      <c r="L13" t="n">
+        <v>2</v>
+      </c>
+      <c r="M13" t="n">
+        <v>-0.03976853977306633</v>
+      </c>
+      <c r="N13" t="n">
+        <v>1.635242953201436</v>
       </c>
     </row>
   </sheetData>
